--- a/_resource/excel/R-任务-任务链配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/R-任务-任务链配置-(框架定义,策划填写).xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,10 +650,11 @@
     <col min="1" max="1" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="248" width="9" style="6"/>
     <col min="249" max="249" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="250" max="251" width="10.5" style="6" bestFit="1" customWidth="1"/>
